--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/7_Ankara_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/7_Ankara_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E3546B-F4C1-40F3-9B45-3FF714811272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E3898E-2B51-4E23-A453-50465C972030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{3A26344E-68C9-469F-9A7C-1699BDC03CE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{EC95C163-B898-4D4C-8781-1E9AE3705EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,15 +950,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DBB4466F-8BF2-465B-9A2F-A365B060A856}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B4AF4A2B-1EAC-4F13-9095-9849F2480E78}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3ABF7F8C-A1A8-4710-96CE-0B6AB626D270}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{80BCF189-1241-4877-BC19-0BA219282C8A}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{AB7CC196-2200-477A-B21A-EB2FE67608A2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{7A6C0372-80DA-44E6-BCB2-69ED132ACCBF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{17FE1B78-E76A-47F2-A337-6DDC9EA680A4}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{E2ACB246-EDA6-4F62-AA13-400381D44EFA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{0908EB4D-8AB0-4F0B-AAAB-455DF280777F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{35E75266-EE21-4653-BDEA-99663B969479}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BC5749E3-1278-43FC-8903-A4CFCDA0C4D4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3307520A-0818-4108-9EF7-C00F834D22B6}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{7311DEE9-7CBF-4D7F-B632-B4319EF32FD3}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{4415C7E7-F31C-43B8-BB3C-B44F58F51750}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{48FC98BF-323D-4D10-A534-8CCFE7C00CE8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{8C2BB381-88BB-420B-8A5D-120526F75A85}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{BB70BB28-4030-4823-8F4F-B7DF984ED96A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{874A99FA-2600-4677-B061-BFE5C188A4DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23688BAC-5483-48BA-AA47-57B72356B5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB22743-4E5A-4C46-AEE2-2320723864A3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2661,18 +2661,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03F51B2A-F65F-4D5C-A3C7-33CB92F325FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E05998D-2051-4DF6-8A44-B3DEE4679BF2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F1A9254-2E82-46FA-BCE5-638EB6FFC3B3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{673C6D4D-FB98-43F1-B56D-ECA618D5A21D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B79BB098-F2F2-44DA-8E1B-AEE2E1F10F8D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6F70BCA-0D0E-411E-82E6-35225F4352C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{442BBEDC-6492-4081-B10D-BB68E8E5C888}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAEFCEE9-987E-4699-BD2A-386AD5146FE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC5F7DC1-4E3A-4FF7-BE3F-BA959815D341}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{794613A9-FC1F-4438-9771-CEEF6CE7DB74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEAF41F9-9AE4-4A8D-B7A0-C8BDC4387CCC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{111290CD-444A-4781-AB41-20A2BD377F3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C8649E0-4BB2-422F-82E2-5EC50B90271F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31F6CA30-5543-4EDD-AD6A-708FD37D849E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B03770FD-9D13-4837-9846-50BD39958F4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72951C05-3E5E-43A7-BACF-FFA074059AC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DCCFC3C-D167-4D06-9C68-8D1CCDD24DCF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4624F994-0E0C-4552-9B77-225D8246F89F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B66E67C4-F28A-4813-B127-C81AF809A4B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEBD4BB5-DC0D-4D40-B1D4-EF856BF461DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4547C1A0-90BD-4857-BA45-A1F0D5D3DAED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B65132AC-2024-41FB-9B6C-A08B4D9165CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03F05473-E549-48DE-8380-9FCB7BC628E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1CAE0BC-4616-4F62-866B-103696AC594E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699DD018-E5B5-46A0-ADE0-B9E13A02457E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C247F-13ED-47C5-8A46-3DDDBD158EDC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4009,18 +4009,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30DF601B-15B6-48A4-9652-8235BC1980B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA4AF8CB-0408-4C98-B558-10CFE47F5F36}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{80581EF2-A986-4E1A-9A26-670C2581818C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C5F1183-552C-46AD-B77F-9FD6FB7EF560}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E78B39EA-25E7-4F8E-8444-CD5C945558E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{906CFF40-A8A1-400A-9D21-C463AF39BB58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{814B1B66-DE4F-4D64-AC87-8935BCE758DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1EB5182-6391-4DAA-97E7-A2E09A2BF966}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AA9D724-F58D-42AD-BE4E-5377411CDED9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4A4FD48-42FB-466C-AB3F-029E152975DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F945339C-0093-4901-9DBA-CF9955982A44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09C791E9-F17B-444A-85DE-0480A7BDB1CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{306C5C17-53A0-4249-9890-27949CEC8D6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42485C3F-FAAD-4068-9571-818C4E1637B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C00AFA6-0B06-486C-A4D2-B48D37D71C5B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C10B7194-E786-40F5-8861-BD028A614AEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{810A2F8A-BFFC-47DA-9368-787F46558DD9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7181BB4A-8459-42D6-A03B-23B0A3151938}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B05C4508-2274-4AE0-8F92-D8250D446E81}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF1BF2D3-24D1-47D1-94E9-992AA83C2277}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DD497DA-71A5-4E81-A7EA-1F756E1E0407}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6EDA9028-8056-4BC5-8EC0-EA8794B203D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C756339C-C307-4076-8B34-63A118B74AC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD50D819-74EA-400D-996C-0836D5C36DEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4033,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7E584-9183-4D4E-9810-0EE86B859C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE05E3D0-C0A9-462B-B7A6-E6DF4A7A3820}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5353,18 +5353,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27787FC6-0F12-4037-9DAA-B43F7CFBD73D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51C8DCAF-2973-4D12-9E9D-FAD7BE070100}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C988E836-851A-4C61-A697-A1F469F8C11A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E51776A-06A3-49EA-B3C2-1276563F062A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AA7C512-B544-408F-A6A5-7AFC759CCEEB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADD4349E-C33B-4D2E-81E1-AACB7A41C8C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{228A866B-CB6C-447A-BFC3-CF2D88E3233F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B89316F2-91FB-4C0E-94A0-CE35909A5E3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A793833-3506-4A7E-8807-D080AC1D765C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D07C453-4E97-42D8-8289-FC9718D5A3C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E608C454-5DA9-488A-88D9-31088B3606BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9313306-23F2-44F1-86FD-C2E8244E70BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14440019-614B-4188-A72C-849AC4E4A6D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BACEE0B7-5363-422F-ADEE-EA5F328B6DEC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB1B109E-C039-46F1-AC50-45D8DF22713D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CDF3B5FA-B4BC-49FF-98CA-9205F870FF73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76C3896B-EAC0-4F9A-BA07-E2A184A03DC2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDF065A3-3C23-4839-93EF-78A5E58B0F71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECCF6D84-06C4-4910-96EB-DC7F3B0303A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD925C5B-E271-40A2-B98A-FA09A38CE189}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68B96010-26C0-4904-B933-899CB23B0CC4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E50A851B-94EC-40DC-90DC-D232E7517EFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65581D8A-D6BF-4BA7-B77C-633CDBA85425}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97B414D2-2922-4C7F-A2A3-C9E7F7297E10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5377,7 +5377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531F49C4-BC27-4D25-B818-4F516E892185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA80D2-48DB-46A8-8E86-378CB1B3A916}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6687,18 +6687,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3187966-6F23-4EA4-AA15-1C0E955B2315}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5024E90B-7E5A-4D1C-8F4A-23689381B347}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88209617-36DF-455E-A8FD-630C3B6CA25A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E447141D-1276-479B-8C4F-722B5EBFE26D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{146174C6-682D-49C1-AD58-707DB26C904D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8180E53-B415-4E81-B7CB-7A62042A7441}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E02F2648-83B5-4CEA-B529-6AB401784B22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEF590E1-6FC4-483E-AD40-3AD2600C9593}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16D27C4A-1DF9-4386-9E22-44E6022FB772}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{817A25D9-FD2D-495E-AA1F-EA31B2110E17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{940D5D17-6768-428E-B633-2A1538C16090}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BFC740B-4E59-4860-8B57-797945BFF441}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F190D949-7288-4751-A81D-52E4CC83AC2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FF946B1-56B9-4210-BAA0-06BD01B35E1E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{28C57756-B64E-4048-BB83-AB4B537F6A0E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91D36929-18A8-44A4-9F0E-804AAC4B31D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A57474AF-09C3-44E7-9ED3-473AFB05AAD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5AA922E-3562-4548-AEB6-5651869D3A07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9099B8E8-CEE1-486F-97F8-F988AC5A2D11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B57F73B-869E-4402-BE33-E5B76C763A4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F4B77EA-30EE-40CA-B8B8-0688359C9627}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E757DE06-7455-4959-84CC-8882F675B4E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E00A537A-8DBC-4BBC-9127-59E962F340FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4B8CFEF-A427-4C8A-BDE5-B314756F65E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6711,7 +6711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5260EAE-15E5-406A-8256-AB2AD7DAD06E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28539B0-1DA7-4B75-87B9-EB1AFA767A44}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8046,18 +8046,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2710929D-BA9F-421F-B415-55E320DD6995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0A7B410-CC47-4B2A-8AB9-45EBEDF1374B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53E9DB46-43EE-4C64-8406-C7DB7A90F2E9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92707093-99F4-478F-AAB5-191DD1611154}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12EE7619-7AC4-4B0D-B87C-35655D7C4AA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E0142C7-25E2-4334-AEFD-880E89A46E75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95250380-7C9E-4251-B252-7B71BFBB9F44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07863B93-072C-4261-80FC-E0A77AC2AB50}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3B08147-8561-45C5-962D-A1244AAF48DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E781048D-CEF2-4B3A-8AC0-9F0894EF177C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C789477-ECC9-4C13-B286-A7113B06CE12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5910570-F00B-4766-BA3D-212C6C16CC67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23D9471F-9AAC-4B5E-AEF6-B1C0F2407050}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EABE9BD3-4A4E-4FB0-952D-13DA479971E7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6592303F-91C9-4D32-A690-7BEE6FC58C99}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{59E1C101-2D32-416A-AEAE-9F5FD2383C4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A7AB4A1-E86D-4E54-B777-D41BC7F07678}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16962AA3-EDC7-48BE-B3D9-91D915FD9AA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D740DAF9-7586-4FE0-9EBF-174FFF816CE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73149532-9705-44B0-A48C-DDB4CA1505B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C572A0A1-DF9F-41D8-980B-B3269786873F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7C508F0-D7DD-479E-A493-D9A90E9F2CB2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E75552E2-9C0D-4E08-A5BF-E3F073C0B4F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9792B283-5FDF-48A7-A22C-611C18F445A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8070,7 +8070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2C943-F862-4C55-BA3A-EEB9C9FA4021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B4EE1E-BAE9-462C-842E-8538D0214E48}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9405,18 +9405,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6AB8091-89DB-42C9-805A-FBAE3C452936}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC4ABE2B-7B37-4B4A-A3D1-0E908A737F92}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{526A0AEC-4E42-4613-92A9-CFB61E50E9A7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86E2B101-11B5-4B49-AEED-7745881A5020}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9324AD2A-A5C1-4820-B7BF-0B9DDDAF0544}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1163D020-C933-433C-81A3-A1C85310D19E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0864DBEB-116E-4C37-A0C9-A896B8485E01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0CAC46F-8556-4360-84E3-A7E96A92584B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70B3AACF-BFF4-48C3-90E2-E0D676F87A90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{744C6865-8EB5-4F96-9A2E-42A65213BDB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{299C4509-0A43-47CE-B4CF-EDAC90993F7B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6052762-B698-479B-86AB-7A59197FE758}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9A0C649-4B3F-4040-9E31-4672558CA194}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FB543F4-10BD-484A-B570-8DBD60DEFDA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7746CBC7-7C98-41BB-BEE8-72F9C2B1300D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C3283D3-BDFA-4EB3-B509-FB28DC0F592A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{269BE2B0-7D85-4507-B1AF-404118D520AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D09BA309-4162-428C-9C58-232EB72DE686}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D175636-7156-4CED-B8AB-CD88B4587F6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87385DAC-FAC0-4010-8D5F-D1B56B5A76C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4EC211C-6424-43D6-8C53-A27ECC23011B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A440EC94-0EA1-4E6B-BC3D-536A50043BC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB4A6ECB-B004-44F5-B4D9-5049F979EBF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8903917-D0EA-4779-ABE4-519C618F4F51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9429,7 +9429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6857C-B478-46F2-87B7-6E098A207D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9E3C2C-90AA-41E3-B9D2-DE2F25DFFC1C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10760,18 +10760,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{756C8487-4562-4007-874E-53C7A73456D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{293F3E60-1C95-4555-8A8F-D5704496089A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A80DE548-ED2B-47D3-B9D3-DEF08D084DF9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4799E436-8F47-4063-BE57-598F7932505E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDF97247-50A7-43EA-B79D-443F994E1FCA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B34CB1DC-3311-475B-8F5F-93123D3A0C70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE2AF559-163C-41A7-A62C-00CCA565B012}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C41E1889-DED5-460B-B3B8-357E62F6DED4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFB7CCED-BA8F-4142-AA2E-473631649C1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DFA38BF0-0976-4403-ADF4-963E0F5A29AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D78C1F1E-92E3-4156-8ED7-15645FBC79EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75E37CC1-DF5C-4B29-B73B-D8EFFE62408A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{596C6133-C987-4C06-B452-CF7F355E9619}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB8AD9C0-E810-4AAB-B893-DAB4905869C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A62DBA3E-EB10-45FE-B41F-2ACE19A064F9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20F7DF95-7CEF-4B88-AF55-195582CFE203}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{203BA009-4603-4B49-96C0-8CAC9D8E3020}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E95902DB-A936-473D-9F14-0463FED0AFDC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C565112-EACF-4934-8617-B33F0D784E59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{982966FA-7F97-4979-BCF9-81A997D54192}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31E7875F-6D7B-41EB-B930-7E55677D0295}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C20A6056-0C1F-455F-833E-105BB760859F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCE53D4A-9420-479D-A12B-AD1603CDB9A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E637296-B77D-48B1-8E12-D31C8A108F26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10784,7 +10784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC8F9F4-DF05-4038-8DCF-B5E1AAA976C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774A8B82-0E7E-4C5A-9650-CE9FCAFF6662}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12115,18 +12115,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F804A284-BD24-4990-9CD6-D643B90734A5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E92A2B95-1813-4DD5-A5DF-AA149F3B4B71}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77D5DEB8-3B54-4375-AD55-C7666196EACE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B7673BA-A5C0-4489-AF56-2A6DB66DF8EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D83D1581-7908-4210-A401-AF6B126E96FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E297DEE-93E8-4E20-82EB-ED4D8E394490}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDE5B893-5D02-45DF-B9E1-2978670E9D53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB4B5F3F-4700-4E09-B1AD-924D52E9F721}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E508B3E8-0057-4B4C-AE3C-3EA896D0C528}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3B539D5-5D85-4393-BD87-CA64E0539617}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF5B2134-B879-4CF5-9D66-0A461366698C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{603F9415-1AA1-47CE-9B7D-A090C08494B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC72FE63-F8E6-4AF3-9447-3B3C669AA6E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC48B397-00C4-404E-8D76-FA6210F217B8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C427FB7-36B0-4F9B-B63F-B56632BC0E54}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1E87BB4-DD44-4690-9EF4-96786A5B8302}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7170596-8519-419B-B68A-5C05A156AC28}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1570996C-D3C6-4D68-9EE0-3EC055C585FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6B06278-D190-42FD-B27B-8320CEA7C8D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7531E91-0F4A-4328-B835-467619B2CF36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA1727FB-4CD7-4E45-A3EF-F5F1D177D9C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{377268CF-74C4-4FAB-A9F4-A9F4B7BC80EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2B128D7-D1DE-48CE-985C-5C9977204B4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC85D836-9092-423B-B402-809D21C5EAA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12139,7 +12139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EEFAE5-F182-4683-BF78-476F9C3C1666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C47B16-3F8B-4C42-BFBB-81CEB0C550CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13470,18 +13470,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC9BF827-4FD1-4E42-92D9-2C2805BF62B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A58455A-7996-4569-AACD-3227CD75AF8E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1136C18-6ACA-4BF7-9AA3-6583A325E011}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C3AC202-4A3A-49C0-BC06-9804EE50E731}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06C11931-9039-417D-A326-870A79115008}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{618BB738-6CB2-43A9-979E-6A69FF1499F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58F999BD-D6F4-463D-969B-85642AE95BC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CB0EA78-56F4-43A1-94C1-B379BB78AC87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADA2CBBC-668A-45D6-A4A6-6B8F5B1F2FCF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01DA5DBF-34CF-4A28-9252-F8D592A45D8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97767462-27F9-4517-A198-6E5E269D94FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D127FDF-83A8-46C4-A8E3-B6BEC7FA0505}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28A43982-A475-4B73-9A89-B5EEE570DD7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB5E4BCA-8145-4BC6-91C1-6FD9A1C032CD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF0792C2-29AE-47AD-936E-E67F5E0B7A09}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{998E9EA4-E153-4162-82B2-8FD07CD96A85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4B5F1FB-9AD8-43D7-9C33-D1F57E3DE057}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B6C60AA-FA19-4624-8597-5B3950A3B0CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F91E585-8C0D-449A-99DA-16D7829FCCCC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1F3EDD8-BFBD-48FB-8635-BE2B3C9DF0F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD1CB439-E05D-45D5-BCEF-420826B8CE7A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E1EFE80-099C-45B5-8F5F-9EFE0DC4FFB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E770B94-BD43-4036-81EE-ECB6FBA117A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE0BCA3F-5721-43A1-A755-CD9767FA5414}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13494,7 +13494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C721BFE-5390-4695-9B51-060A43C7EC3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA869BA6-233E-4851-98E8-4A287B441088}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14825,18 +14825,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05F50036-009A-4C26-ABA6-BBDC5C4CFA59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06681119-75E0-4090-96B3-02B4A14C7F0A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C70B877E-E3D5-496F-8E5F-728EE762357E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E2FDA6B3-7E14-46E5-A476-4FD787A16C77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15AA848A-6847-4DE0-A22C-FE7A3041D7EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A20D9E90-DB46-435A-B835-24AB51CB1D84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67E20268-6719-49A1-9F0F-0BDD73921BFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{607B8F5D-C068-4B38-BC7D-AD6B1662EF1B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF96E2CC-A28F-4A67-9735-B7914AEF9C3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C694BF2D-A4EE-4C59-92A2-B96E0BFFA2B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{847D5667-E90C-4191-99C9-883D052079A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B186004-F1C0-4E0F-B363-76BAA52DDD6F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B443C7D7-A161-47FB-BEE2-AD3A842C0876}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6362CEC7-F5F0-4513-A75A-69E388C9AE39}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD78A461-5DB2-41CE-A840-9006DEB02B4D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2824BFD-6203-4D54-9032-85262821B044}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9515F60E-3C62-45D2-903D-43CBF4A9D93C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F42067E-F173-4D55-840B-8766A821069C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89CF91FC-7CDD-4CF4-8A86-97D20512C571}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE6B9DD1-6B65-4EFF-9A17-B10BB075173D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54EA47AB-69C5-4B32-9B18-BF7C8AA73E6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE7E072A-1877-4822-B032-15E544A15041}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{496AB4AD-41C6-4BB1-B70C-4DEA4A20FF32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B91565F3-0A54-4EF1-AC52-04D56BAFEE0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14849,7 +14849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D9B88-9343-44A3-B90F-C4BD8CC8B0E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B27D0B-4D69-4A09-90D2-B404FBAD75A2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16180,18 +16180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8916BD9-E063-458D-AACE-86A312B9C817}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4749B0D-3F8E-49D9-BAFB-B91660F31D06}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5275934F-66E1-4ED9-B24B-C52C3F90CFAC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BBA3C4A-8321-40CA-8A29-E15EA3EE6D02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DDCE54D-68A6-4E9A-87B2-93DE92389C1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{702D9FFE-CEAC-435B-B5E1-59DDEF5FF175}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86001727-537E-40BD-98AF-5ADFF67F5C51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64AA1742-3CE4-4682-9E5A-BAB94C01A1A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C481E26A-1845-446C-A3D2-15317D5784A0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8827B6EB-F546-4CF0-AA2C-6E894ACB492D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D2F1E49-957D-4367-8910-6BE4A674619B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDFB0213-8D94-493E-9621-A8D1DA2D2CA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E93A305-5794-4BF3-82E5-165D23E9A0A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0439EB73-9E6A-49DD-ADEC-31EB627F24B8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C08E334-FB88-4E50-896E-7AE2833E359B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D54C417-19CF-4EA0-A84A-893CD4B64B03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{752F33F1-EA42-40CC-9BDF-76231D4D40A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{081391C7-29BD-4119-A79D-15AB3DA4EF84}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{287D2724-0D58-4352-BB0B-D05B0641E593}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47C156E7-719C-41A6-94D0-95C429477936}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6D48098-BF04-420B-8690-996FE044F424}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CBDEE5A-D7D0-47A7-AE4F-8DB58DD8D43A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{078777FC-2001-4BF0-828D-6D3418373E9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CAFAA29-B359-4E2C-8EE4-CC292710125E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16204,7 +16204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C2B91C-27F0-496F-815B-63AB577316BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED5B344-5BCB-4C2F-A511-1838340B04C0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17531,18 +17531,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52D10239-389B-4186-940F-E5FD701E4FD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{121E5297-6A52-4848-97F6-84044D9E6BAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D600BFAA-C295-496B-9AD9-60C7B33B7B62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CAD849C-6237-4676-B121-3CD540861D2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4FABF31-E4CC-428C-8BAE-E3D380DD08F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF9DBF17-0754-4438-969A-6AB5D55931B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E827B0CF-F394-4395-BEEE-96527DABF2EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA256884-D373-4D58-9E4F-9F6400253E84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20A74932-19DD-45C3-8F6C-6269A7974421}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0622679E-85AB-4324-8874-627D5136EFAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C79592EA-FC8F-4ECE-8CF1-7180BF918877}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{319B786A-B583-4C1E-BC1C-550E967BA12F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE0F1E07-EC99-46F7-8F8C-BDDF463A9EE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2A5B234-88FC-428D-985A-0853DE93A36C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{130FBA81-A3A3-4C11-9D3A-0A7277B9CDE7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA309E01-0AC5-44FF-8D92-58BF311B2B06}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5ECBA724-4517-4551-BFD3-B4A1BE9C4FC4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D63FCCC-6CBF-4AD0-BE54-7803C84D832B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BF10F59-B1EE-4B46-818D-35B8697BDB2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD59D79A-FFB9-4A67-B25E-50C7363118E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3175A57-2C3A-4F1E-B7B6-83D7FE014D63}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BADBFE4-D0E3-4825-A86E-08AB19E50EFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B21FD554-76EC-4404-972D-4FAFB3AFF4C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{824E4295-59F6-4599-8AD2-BE410B9B3FC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
